--- a/NTC_node_model/Output_toy_1.xlsx
+++ b/NTC_node_model/Output_toy_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1CEA8E-3245-4A40-BE66-78863E08E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051BAA0-3441-4CE2-B6C3-130533EC7567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="30" windowWidth="12570" windowHeight="14970" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
+    <workbookView xWindow="-20850" yWindow="1380" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DE</t>
   </si>
@@ -63,9 +63,6 @@
     <t>BE</t>
   </si>
   <si>
-    <t>NL</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>EENS</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Eps</t>
   </si>
 </sst>
 </file>
@@ -451,13 +454,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,13 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1639.589878603286</v>
-      </c>
-      <c r="C2">
-        <v>1592</v>
-      </c>
-      <c r="D2">
-        <v>15832767.602511281</v>
+        <v>51.740432018011099</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,13 +476,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1470.272308432284</v>
-      </c>
-      <c r="C3">
-        <v>204</v>
-      </c>
-      <c r="D3">
-        <v>263502.74384718697</v>
+        <v>35.524237353054097</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2956.0434928641539</v>
+        <v>130.08822998247675</v>
       </c>
       <c r="C4">
-        <v>5143</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>18245175.458450809</v>
+        <v>20336.886370874116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45.909704507154885</v>
+        <v>45.893114004781893</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,13 +506,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2998.972602739871</v>
+        <v>1323.7206634810041</v>
       </c>
       <c r="C6">
-        <v>8748</v>
+        <v>2220</v>
       </c>
       <c r="D6">
-        <v>26470731.037773233</v>
+        <v>2831961.36759225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,13 +520,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1752.463104168032</v>
-      </c>
-      <c r="C7">
-        <v>2567</v>
-      </c>
-      <c r="D7">
-        <v>17081129.415295459</v>
+        <v>49.095216108466332</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,13 +528,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1958.2272181832036</v>
-      </c>
-      <c r="C8">
-        <v>3221</v>
-      </c>
-      <c r="D8">
-        <v>13459698.69016112</v>
+        <v>38.084735778135155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,13 +536,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>184.29917822296443</v>
-      </c>
-      <c r="C9">
-        <v>155</v>
-      </c>
-      <c r="D9">
-        <v>525880.3937732653</v>
+        <v>10.963639842586085</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,111 +544,69 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>385.23395963801505</v>
-      </c>
-      <c r="C10">
-        <v>702</v>
-      </c>
-      <c r="D10">
-        <v>1119216.3550757724</v>
+        <v>35.938446636299041</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3000.0000000001464</v>
-      </c>
-      <c r="C11">
-        <v>8760</v>
-      </c>
-      <c r="D11">
-        <v>155386359.77181992</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>3000.0000000001464</v>
+        <v>1013.4497528704383</v>
       </c>
       <c r="C12">
-        <v>8760</v>
+        <v>2471</v>
       </c>
       <c r="D12">
-        <v>151632917.37277123</v>
+        <v>8211874.2676019818</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>134.07545613073353</v>
-      </c>
-      <c r="C13">
-        <v>161</v>
-      </c>
-      <c r="D13">
-        <v>355322.84550830361</v>
+        <v>43.411125249960975</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>72.213235457055632</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1468.2878450512144</v>
+        <v>43.533429821157021</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>45.591541114969587</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>2250.2343085252796</v>
+        <v>37.366037605865451</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>45.858925344760479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>128.3846547945486</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>531.12250332946542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B17">
-        <v>1742.6231312403361</v>
-      </c>
-      <c r="C17">
-        <v>1590</v>
-      </c>
-      <c r="D17">
-        <v>1315986.9674874383</v>
+        <v>46.489101972975682</v>
       </c>
     </row>
   </sheetData>

--- a/NTC_node_model/Output_toy_1.xlsx
+++ b/NTC_node_model/Output_toy_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051BAA0-3441-4CE2-B6C3-130533EC7567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B862A-7E04-4B43-9B19-B2A74040B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20850" yWindow="1380" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
+    <workbookView xWindow="9510" yWindow="5730" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>DE</t>
   </si>
@@ -93,7 +93,10 @@
     <t>NE</t>
   </si>
   <si>
-    <t>Eps</t>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023E10EA-4157-49DF-9A5A-8D0CAD6E8241}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51.740432018011099</v>
+        <v>51.470604447051734</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35.524237353054097</v>
+        <v>36.906859989395727</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>130.08822998247675</v>
+        <v>61.870302892019353</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>20336.886370874116</v>
+        <v>2223.0948495890061</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45.893114004781893</v>
+        <v>45.817027862977056</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,13 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1323.7206634810041</v>
-      </c>
-      <c r="C6">
-        <v>2220</v>
-      </c>
-      <c r="D6">
-        <v>2831961.36759225</v>
+        <v>51.435139978723726</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49.095216108466332</v>
+        <v>48.715015175272598</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>38.084735778135155</v>
+        <v>44.567215085150295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.963639842586085</v>
+        <v>10.573290091731741</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,15 +541,15 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.938446636299041</v>
+        <v>39.922786122832342</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>43.550535321702753</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,13 +557,13 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1013.4497528704383</v>
+        <v>975.86648616643481</v>
       </c>
       <c r="C12">
-        <v>2471</v>
+        <v>2378</v>
       </c>
       <c r="D12">
-        <v>8211874.2676019818</v>
+        <v>8016112.4227754334</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>43.533429821157021</v>
+        <v>43.533429821157029</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>37.366037605865451</v>
+        <v>37.346686962247269</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>45.858925344760479</v>
+        <v>43.929614200448363</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +603,23 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>46.489101972975682</v>
+        <v>43.180103923344817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>43.180103923344817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>61.870302892019353</v>
       </c>
     </row>
   </sheetData>

--- a/NTC_node_model/Output_toy_1.xlsx
+++ b/NTC_node_model/Output_toy_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B862A-7E04-4B43-9B19-B2A74040B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE55634-5443-485B-85DB-9020D9836F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="5730" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
+    <workbookView xWindow="-18945" yWindow="6075" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51.470604447051734</v>
+        <v>51.442815003220943</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36.906859989395727</v>
+        <v>35.036388732997175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61.870302892019353</v>
+        <v>42.665167645081112</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>2223.0948495890061</v>
+        <v>3585.9477783149505</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45.817027862977056</v>
+        <v>45.817027862977049</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>51.435139978723726</v>
+        <v>51.410991912378243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>48.715015175272598</v>
+        <v>48.69248694944671</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44.567215085150295</v>
+        <v>44.553080258134194</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,13 +557,13 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>975.86648616643481</v>
+        <v>617.39785646501377</v>
       </c>
       <c r="C12">
-        <v>2378</v>
+        <v>1575</v>
       </c>
       <c r="D12">
-        <v>8016112.4227754334</v>
+        <v>5398214.7562562032</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>43.929614200448363</v>
+        <v>43.362150540645672</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>43.180103923344817</v>
+        <v>43.165854260335479</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>43.180103923344817</v>
+        <v>43.165854260335479</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>61.870302892019353</v>
+        <v>42.665167645081112</v>
       </c>
     </row>
   </sheetData>

--- a/NTC_node_model/Output_toy_1.xlsx
+++ b/NTC_node_model/Output_toy_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE55634-5443-485B-85DB-9020D9836F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB1D06-1213-46BD-9985-A3291F1E6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18945" yWindow="6075" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
+    <workbookView xWindow="-19830" yWindow="1380" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51.442815003220943</v>
+        <v>51.12027569504987</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35.036388732997175</v>
+        <v>34.929364267815359</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42.665167645081112</v>
+        <v>92.96803492219631</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>3585.9477783149505</v>
+        <v>17715.799623773979</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45.817027862977049</v>
+        <v>45.803429426203138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>51.410991912378243</v>
+        <v>51.101750596676794</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>48.69248694944671</v>
+        <v>48.508531206111407</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44.553080258134194</v>
+        <v>44.488112398993451</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.922786122832342</v>
+        <v>42.513314293998619</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>43.550535321702753</v>
+        <v>43.699714581230964</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,13 +557,13 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>617.39785646501377</v>
+        <v>748.0520157976249</v>
       </c>
       <c r="C12">
-        <v>1575</v>
+        <v>2160</v>
       </c>
       <c r="D12">
-        <v>5398214.7562562032</v>
+        <v>10685952.895279545</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>43.362150540645672</v>
+        <v>42.945902772351737</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>43.165854260335479</v>
+        <v>43.208835903700191</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>43.165854260335479</v>
+        <v>43.208835903700191</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>42.665167645081112</v>
+        <v>92.96803492219631</v>
       </c>
     </row>
   </sheetData>

--- a/NTC_node_model/Output_toy_1.xlsx
+++ b/NTC_node_model/Output_toy_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB1D06-1213-46BD-9985-A3291F1E6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB00C37-4755-447D-937E-B7BA6CEE1001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19830" yWindow="1380" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
+    <workbookView xWindow="10695" yWindow="3105" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>DE</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>Eps</t>
   </si>
 </sst>
 </file>
@@ -470,156 +473,240 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>51.12027569504987</v>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>4741</v>
+      </c>
+      <c r="D2">
+        <v>231851694.78619149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>34.929364267815359</v>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>3105</v>
+      </c>
+      <c r="D3">
+        <v>6666915.3606958091</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>92.96803492219631</v>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>2550</v>
       </c>
       <c r="D4">
-        <v>17715.799623773979</v>
+        <v>25219604.720429733</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>45.803429426203138</v>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>4755</v>
+      </c>
+      <c r="D5">
+        <v>81205532.243973807</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>51.101750596676794</v>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>4755</v>
+      </c>
+      <c r="D6">
+        <v>36045997.511829659</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>48.508531206111407</v>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>4484</v>
+      </c>
+      <c r="D7">
+        <v>27779796.200449206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>44.488112398993451</v>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>4269</v>
+      </c>
+      <c r="D8">
+        <v>12799557.610925866</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>10.573290091731741</v>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>4758</v>
+      </c>
+      <c r="D9">
+        <v>236196366.3022812</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>42.513314293998619</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>4758</v>
+      </c>
+      <c r="D10">
+        <v>43242062.862223685</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>43.699714581230964</v>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>4760</v>
+      </c>
+      <c r="D11">
+        <v>54809658.375943542</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>748.0520157976249</v>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>2160</v>
+        <v>1089</v>
       </c>
       <c r="D12">
-        <v>10685952.895279545</v>
+        <v>11214449.671051482</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>43.411125249960975</v>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>4758</v>
+      </c>
+      <c r="D13">
+        <v>144031160.29131836</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>43.533429821157029</v>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>4760</v>
+      </c>
+      <c r="D14">
+        <v>154068391.16116107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>37.346686962247269</v>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>4669</v>
+      </c>
+      <c r="D15">
+        <v>101918561.88254906</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>42.945902772351737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>4751</v>
+      </c>
+      <c r="D16">
+        <v>12819280.370921876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>43.208835903700191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>4686</v>
+      </c>
+      <c r="D17">
+        <v>7830272.2777400212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>43.208835903700191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>92.96803492219631</v>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/NTC_node_model/Output_toy_1.xlsx
+++ b/NTC_node_model/Output_toy_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB00C37-4755-447D-937E-B7BA6CEE1001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18489C9D-C278-458D-B91E-F451CD19A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="3105" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
+    <workbookView xWindow="-17760" yWindow="3450" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DE</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Average Price</t>
   </si>
   <si>
-    <t>LOLH</t>
-  </si>
-  <si>
-    <t>EENS</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>FI</t>
-  </si>
-  <si>
-    <t>Eps</t>
   </si>
 </sst>
 </file>
@@ -462,251 +453,151 @@
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>4741</v>
-      </c>
-      <c r="D2">
-        <v>231851694.78619149</v>
+      <c r="B2">
+        <v>46.653247317806027</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>3105</v>
-      </c>
-      <c r="D3">
-        <v>6666915.3606958091</v>
+      <c r="B3">
+        <v>27.450297752412101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>2550</v>
-      </c>
-      <c r="D4">
-        <v>25219604.720429733</v>
+      <c r="B4">
+        <v>8.5814888955585129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>4755</v>
-      </c>
-      <c r="D5">
-        <v>81205532.243973807</v>
+      <c r="B5">
+        <v>43.020924776178376</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>4755</v>
-      </c>
-      <c r="D6">
-        <v>36045997.511829659</v>
+      <c r="B6">
+        <v>46.513896901204895</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>4484</v>
-      </c>
-      <c r="D7">
-        <v>27779796.200449206</v>
+      <c r="B7">
+        <v>43.208773161810804</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>4269</v>
-      </c>
-      <c r="D8">
-        <v>12799557.610925866</v>
+      <c r="B8">
+        <v>37.021801655001937</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>4758</v>
-      </c>
-      <c r="D9">
-        <v>236196366.3022812</v>
+      <c r="B9">
+        <v>9.625365223589764</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>4758</v>
-      </c>
-      <c r="D10">
-        <v>43242062.862223685</v>
+      <c r="B10">
+        <v>38.582068706482907</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>4760</v>
-      </c>
-      <c r="D11">
-        <v>54809658.375943542</v>
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>39.367464662678429</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>1089</v>
-      </c>
-      <c r="D12">
-        <v>11214449.671051482</v>
+      <c r="B12">
+        <v>8.5814888955585129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>4758</v>
-      </c>
-      <c r="D13">
-        <v>144031160.29131836</v>
+      <c r="B13">
+        <v>39.26125374901838</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>4760</v>
-      </c>
-      <c r="D14">
-        <v>154068391.16116107</v>
+      <c r="B14">
+        <v>39.360734992997436</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>4669</v>
-      </c>
-      <c r="D15">
-        <v>101918561.88254906</v>
+      <c r="B15">
+        <v>32.409530081029551</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>4751</v>
-      </c>
-      <c r="D16">
-        <v>12819280.370921876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>33.620849765496253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>4686</v>
-      </c>
-      <c r="D17">
-        <v>7830272.2777400212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>38.652487638139775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>38.652487638139775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.5814888955585129</v>
       </c>
     </row>
   </sheetData>

--- a/NTC_node_model/Output_toy_1.xlsx
+++ b/NTC_node_model/Output_toy_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18489C9D-C278-458D-B91E-F451CD19A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB128195-6E29-4EF5-A5B5-FC54C78C9374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17760" yWindow="3450" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
+    <workbookView xWindow="11385" yWindow="3795" windowWidth="16305" windowHeight="8175" xr2:uid="{F71B0BC6-7AA1-4C50-AF89-FF573CEDA561}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.653247317806027</v>
+        <v>-7.121175394223445</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.450297752412101</v>
+        <v>-58.951485759989659</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.5814888955585129</v>
+        <v>-144.92996575345526</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.020924776178376</v>
+        <v>6.2110613426153742</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46.513896901204895</v>
+        <v>3.5395739329939842</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43.208773161810804</v>
+        <v>-7.8146617262265146</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>37.021801655001937</v>
+        <v>7.063471891122485</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.625365223589764</v>
+        <v>5.8493868751110103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.582068706482907</v>
+        <v>18.056327088033402</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>39.367464662678429</v>
+        <v>2.9608601550091862</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>8.5814888955585129</v>
+        <v>-149.98287671236048</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>39.26125374901838</v>
+        <v>6.8590305581974453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>39.360734992997436</v>
+        <v>6.9681957280362168</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>32.409530081029551</v>
+        <v>-74.226217628833069</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>33.620849765496253</v>
+        <v>-51.60470890410938</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>38.652487638139775</v>
+        <v>7.1802796622170293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>38.652487638139775</v>
+        <v>7.1802796622170293</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8.5814888955585129</v>
+        <v>-144.92996575345526</v>
       </c>
     </row>
   </sheetData>
